--- a/docs/buglist.xlsx
+++ b/docs/buglist.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>No</t>
   </si>
@@ -26,13 +26,31 @@
     <t>Bug list</t>
   </si>
   <si>
+    <t>status</t>
+  </si>
+  <si>
     <t>applicant form</t>
   </si>
   <si>
     <t>1. ketika sedang meingisi dan belum selesai, kemudia user klik tombol summary, maka harus redirect to hope page applicant, bukan halaman error</t>
   </si>
   <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>2. setelah summary seharusnya ada tombol next ke halaman cetak</t>
+  </si>
+  <si>
+    <t>register</t>
+  </si>
+  <si>
+    <t>jika register salah maka harus kembali ke halaman register+datanya +notifikasi salah nya dimana</t>
+  </si>
+  <si>
+    <t>password tidak match-warningnya warna putih</t>
+  </si>
+  <si>
+    <t>halaman email redundant, di applicants dan users(kalaupun mau dibiarkan harusnya setelah registrasi tidak perlu mingisi lagi)</t>
   </si>
 </sst>
 </file>
@@ -47,6 +65,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -68,6 +87,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -119,13 +139,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -149,18 +173,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="3.78061224489796"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="20.7602040816327"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="116.964285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="75.0204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -170,23 +195,76 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="1" t="s">
-        <v>5</v>
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/docs/buglist.xlsx
+++ b/docs/buglist.xlsx
@@ -139,7 +139,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -154,6 +154,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -176,7 +180,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.4"/>
@@ -189,16 +193,16 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -206,6 +210,7 @@
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
@@ -229,10 +234,14 @@
         <v>6</v>
       </c>
     </row>
+    <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="1"/>
+    </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">

--- a/docs/buglist.xlsx
+++ b/docs/buglist.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
   <si>
     <t>No</t>
   </si>
@@ -135,7 +135,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -159,7 +159,15 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="10"/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -172,12 +180,24 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF111111"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -244,23 +264,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -273,6 +293,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF111111"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -284,7 +364,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19:A22"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.4"/>
@@ -296,7 +376,7 @@
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5714285714286"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -309,26 +389,27 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7"/>
-      <c r="B2" s="5" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="0"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="0"/>
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
@@ -343,7 +424,6 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="0"/>
       <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
@@ -358,7 +438,6 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="0"/>
       <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
@@ -376,7 +455,6 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="0"/>
       <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
@@ -391,7 +469,6 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="0"/>
       <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
@@ -406,11 +483,10 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="0"/>
       <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -421,11 +497,10 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="0"/>
       <c r="C9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -433,11 +508,10 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="0"/>
       <c r="C10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -445,32 +519,27 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="0"/>
       <c r="C11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7"/>
-      <c r="B12" s="0"/>
-      <c r="D12" s="0"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7"/>
-      <c r="B13" s="5" t="s">
+      <c r="D11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="0"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B14" s="0"/>
       <c r="C14" s="3" t="s">
         <v>21</v>
       </c>
@@ -485,7 +554,6 @@
       <c r="A15" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B15" s="0"/>
       <c r="C15" s="3" t="s">
         <v>22</v>
       </c>
@@ -503,7 +571,6 @@
       <c r="A16" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B16" s="0"/>
       <c r="C16" s="3" t="s">
         <v>24</v>
       </c>
@@ -515,18 +582,17 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7"/>
-      <c r="B17" s="0"/>
-      <c r="C17" s="0"/>
-      <c r="D17" s="0"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7"/>
-      <c r="B18" s="2" t="s">
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="0"/>
-      <c r="D18" s="0"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
@@ -555,6 +621,9 @@
       <c r="E20" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="F20" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
@@ -585,6 +654,11 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A18:F18"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/docs/buglist.xlsx
+++ b/docs/buglist.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
   <si>
     <t>No</t>
   </si>
@@ -127,6 +127,36 @@
   <si>
     <t>belum ada halaman export data siswa ke excel</t>
   </si>
+  <si>
+    <t>Bisa kah default row in tablenya diganti 50?? -minor-</t>
+  </si>
+  <si>
+    <t>AUTH</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ketika admin keluar tanpa logout, maka ketika mengetikan </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">localhost, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">otomatis redirect to userpage</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -135,7 +165,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -175,6 +205,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -247,7 +284,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -282,6 +319,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -361,10 +402,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:F1"/>
+      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.4"/>
@@ -410,6 +451,7 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="B3" s="0"/>
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
@@ -424,6 +466,7 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="B4" s="0"/>
       <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
@@ -438,6 +481,7 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="B5" s="0"/>
       <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
@@ -455,6 +499,7 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="B6" s="0"/>
       <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
@@ -469,6 +514,7 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="B7" s="0"/>
       <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
@@ -483,6 +529,7 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="B8" s="0"/>
       <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
@@ -497,6 +544,7 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="B9" s="0"/>
       <c r="C9" s="3" t="s">
         <v>17</v>
       </c>
@@ -508,6 +556,7 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="B10" s="0"/>
       <c r="C10" s="3" t="s">
         <v>18</v>
       </c>
@@ -519,12 +568,21 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="B11" s="0"/>
       <c r="C11" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>11</v>
       </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0"/>
+      <c r="B12" s="0"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="0"/>
+      <c r="E12" s="0"/>
+      <c r="F12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
@@ -540,6 +598,7 @@
       <c r="A14" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="B14" s="0"/>
       <c r="C14" s="3" t="s">
         <v>21</v>
       </c>
@@ -554,6 +613,7 @@
       <c r="A15" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="B15" s="0"/>
       <c r="C15" s="3" t="s">
         <v>22</v>
       </c>
@@ -571,6 +631,7 @@
       <c r="A16" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="B16" s="0"/>
       <c r="C16" s="3" t="s">
         <v>24</v>
       </c>
@@ -582,7 +643,11 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="2"/>
+      <c r="A17" s="0"/>
+      <c r="B17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
@@ -607,6 +672,7 @@
       <c r="E19" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="F19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
@@ -653,11 +719,50 @@
         <v>9</v>
       </c>
     </row>
+    <row r="23" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A25:F25"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/docs/buglist.xlsx
+++ b/docs/buglist.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="204" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="204"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="30">
   <si>
     <t>No</t>
   </si>
@@ -59,12 +58,6 @@
     <t>close</t>
   </si>
   <si>
-    <t>ketika memasukkan data tahul lulu di halaman data sekolah, user dapat memasukan data tahu dalam lebih dari 4 digits</t>
-  </si>
-  <si>
-    <t>ketika mengisi nilai rapot user dapat mengisikan symbol “-” dan nilai 0 pada fileld nya</t>
-  </si>
-  <si>
     <t>[dead link] setelah summary seharusnya ada tombol next ke halaman cetak</t>
   </si>
   <si>
@@ -81,7 +74,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">jika register salah maka harus kembali ke halaman register+datanya +notifikasi salah nya dimana (</t>
+      <t>jika register salah maka harus kembali ke halaman register+datanya +notifikasi salah nya dimana (</t>
     </r>
     <r>
       <rPr>
@@ -91,7 +84,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">data tidak bisa dikembalikan</t>
+      <t>data tidak bisa dikembalikan</t>
     </r>
     <r>
       <rPr>
@@ -100,7 +93,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">)</t>
+      <t>)</t>
     </r>
   </si>
   <si>
@@ -110,9 +103,6 @@
     <t>henri</t>
   </si>
   <si>
-    <t>halaman email redundant, di applicants dan users(kalaupun mau dibiarkan harusnya setelah registrasi tidak perlu mingisi lagi)</t>
-  </si>
-  <si>
     <t>Admin page</t>
   </si>
   <si>
@@ -126,16 +116,22 @@
   </si>
   <si>
     <t>belum ada halaman export data siswa ke excel</t>
+  </si>
+  <si>
+    <t>halaman email redundant, di applicants dan users(kalaupun mau dibiarkan harusnya setelah registrasi tidak perlu mingisi lagi) -- ketika mengisi applicant -&gt; ambil dari users</t>
+  </si>
+  <si>
+    <t>ketika memasukkan data tahul lulu di halaman data sekolah, user dapat memasukan data tahu dalam lebih dari 4 digits</t>
+  </si>
+  <si>
+    <t>ketika mengisi nilai rapot user dapat mengisikan symbol “-” dan nilai 0 pada fileld nya ( we let it there)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="7">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -143,22 +139,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
@@ -166,7 +147,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -180,7 +161,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,94 +186,68 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -351,32 +306,320 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:F1"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.4"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="3.70918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="20.7091836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="75"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="2" width="11.5714285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5714285714286"/>
+    <col min="1" max="1" width="3.7109375" style="1"/>
+    <col min="2" max="2" width="20.7109375" style="2"/>
+    <col min="3" max="3" width="75" style="3"/>
+    <col min="4" max="6" width="11.5703125" style="2"/>
+    <col min="7" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="15.75">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -396,18 +639,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:6" ht="15.75">
+      <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:6" ht="25.5">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -420,28 +663,31 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
+      <c r="D4" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="F4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -451,40 +697,46 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:6" ht="25.5">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="25.5">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
@@ -493,113 +745,119 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:6" ht="15.75">
+      <c r="A13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" ht="25.5">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+      <c r="D15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="38.25">
+      <c r="A16" s="1">
+        <v>3</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75">
+      <c r="A18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
         <v>1</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>11</v>
@@ -608,14 +866,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
         <v>2</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -625,12 +883,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
         <v>3</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>11</v>
@@ -639,12 +897,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
         <v>4</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>11</v>
@@ -659,10 +917,9 @@
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="A18:F18"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/docs/buglist.xlsx
+++ b/docs/buglist.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
   <si>
     <t>No</t>
   </si>
@@ -47,19 +47,43 @@
     <t>agung</t>
   </si>
   <si>
-    <t>saat mengisi tanggal lahir, pilihan tahunnya 0-0-0-0</t>
+    <r>
+      <t xml:space="preserve">saat mengisi tanggal lahir, pilihan tahunnya 0-0-0-0(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF420E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">bisa dengan click today terlebih dahulu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <t>pending</t>
+  </si>
+  <si>
+    <t>saat mengisi data sekolah, judul halamannya masih data pesantren</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>ketika memasukkan data tahul lulu di halaman data sekolah, user dapat memasukan data tahu dalam lebih dari 4 digits</t>
   </si>
   <si>
     <t>open</t>
-  </si>
-  <si>
-    <t>saat mengisi data sekolah, judul halamannya masih data pesantren</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>ketika memasukkan data tahul lulu di halaman data sekolah, user dapat memasukan data tahu dalam lebih dari 4 digits</t>
   </si>
   <si>
     <t>ketika mengisi nilai rapot user dapat mengisikan symbol “-” dan nilai 0 pada fileld nya</t>
@@ -128,6 +152,9 @@
     <t>belum ada halaman export data siswa ke excel</t>
   </si>
   <si>
+    <t>fitur upload no ujian (applicant number and test number)</t>
+  </si>
+  <si>
     <t>Bisa kah default row in tablenya diganti 50?? -minor-</t>
   </si>
   <si>
@@ -165,7 +192,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -198,6 +225,13 @@
     <font>
       <b val="true"/>
       <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF420E"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -381,7 +415,7 @@
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFFF420E"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
@@ -402,10 +436,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.4"/>
@@ -461,6 +495,7 @@
       <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="F3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
@@ -476,6 +511,9 @@
       <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="F4" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
@@ -504,11 +542,12 @@
         <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="F6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
@@ -516,14 +555,15 @@
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="F7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
@@ -531,14 +571,15 @@
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="F8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
@@ -546,11 +587,13 @@
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E9" s="0"/>
+      <c r="F9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
@@ -558,11 +601,13 @@
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E10" s="0"/>
+      <c r="F10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
@@ -570,11 +615,13 @@
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E11" s="0"/>
+      <c r="F11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0"/>
@@ -586,7 +633,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -600,14 +647,15 @@
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="F14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
@@ -615,7 +663,7 @@
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>13</v>
@@ -624,7 +672,7 @@
         <v>9</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -633,25 +681,27 @@
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="F16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0"/>
       <c r="B17" s="0"/>
+      <c r="C17" s="0"/>
       <c r="D17" s="0"/>
       <c r="E17" s="0"/>
       <c r="F17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -664,22 +714,21 @@
         <v>1</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>13</v>
@@ -696,10 +745,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>9</v>
@@ -710,10 +759,10 @@
         <v>4</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>9</v>
@@ -724,36 +773,54 @@
         <v>5</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+    <row r="24" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="2" t="s">
+      <c r="C27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -762,7 +829,7 @@
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A26:F26"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/docs/buglist.xlsx
+++ b/docs/buglist.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
   <si>
     <t>No</t>
   </si>
@@ -35,7 +35,7 @@
     <t>applicant form</t>
   </si>
   <si>
-    <t>ketika sedang meingisi dan belum selesai, kemudia user klik tombol summary, maka harus redirect to hope page applicant, bukan halaman error</t>
+    <t>ketika sedang meingisi dan belum selesai, kemudia user klik tombol summary, maka harus redirect to home page applicant, bukan halaman error</t>
   </si>
   <si>
     <t>progress</t>
@@ -119,7 +119,28 @@
     <t>report per province</t>
   </si>
   <si>
-    <t>report per universities</t>
+    <r>
+      <t xml:space="preserve">report per universities(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF420E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">dishow semua univ, utk filternya sementara menggunakan search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
   </si>
   <si>
     <t>belum ada halaman export data siswa ke excel</t>
@@ -165,7 +186,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -205,6 +226,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF420E"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -284,7 +312,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -319,6 +347,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -377,7 +409,7 @@
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFFF420E"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
@@ -401,7 +433,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.4"/>
@@ -412,7 +444,7 @@
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5714285714286"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -451,7 +483,6 @@
       <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
@@ -487,7 +518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
@@ -504,7 +535,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
@@ -534,7 +565,6 @@
       <c r="D8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
@@ -546,8 +576,6 @@
       <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="0"/>
-      <c r="E9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
@@ -559,8 +587,6 @@
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="0"/>
-      <c r="E10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
@@ -572,15 +598,10 @@
       <c r="C11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="0"/>
-      <c r="E11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0"/>
-      <c r="B12" s="0"/>
-      <c r="C12" s="0"/>
-      <c r="D12" s="0"/>
-      <c r="E12" s="0"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
@@ -591,7 +612,7 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>1</v>
       </c>
@@ -625,7 +646,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>3</v>
       </c>
@@ -643,11 +664,8 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0"/>
+      <c r="A17" s="3"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="0"/>
-      <c r="D17" s="0"/>
-      <c r="E17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
@@ -666,12 +684,11 @@
         <v>25</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
@@ -694,16 +711,18 @@
       <c r="A21" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>7</v>
+      <c r="C21" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="0"/>
+      <c r="E21" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
@@ -718,7 +737,6 @@
       <c r="D22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
@@ -733,7 +751,6 @@
       <c r="D23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
@@ -748,28 +765,18 @@
       <c r="D24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0"/>
-      <c r="B25" s="0"/>
-      <c r="C25" s="0"/>
-      <c r="D25" s="0"/>
-      <c r="E25" s="0"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0"/>
-      <c r="B26" s="0"/>
-      <c r="C26" s="0"/>
-      <c r="D26" s="0"/>
-      <c r="E26" s="0"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0"/>
-      <c r="B27" s="0"/>
-      <c r="C27" s="0"/>
-      <c r="D27" s="0"/>
-      <c r="E27" s="0"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
@@ -780,7 +787,7 @@
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
     </row>
-    <row r="29" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>1</v>
       </c>

--- a/docs/buglist.xlsx
+++ b/docs/buglist.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="102" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="102"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="33">
   <si>
     <t>No</t>
   </si>
@@ -81,7 +80,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">jika register salah maka harus kembali ke halaman register+datanya +notifikasi salah nya dimana (</t>
+      <t>jika register salah maka harus kembali ke halaman register+datanya +notifikasi salah nya dimana (</t>
     </r>
     <r>
       <rPr>
@@ -91,7 +90,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">data tidak bisa dikembalikan</t>
+      <t>data tidak bisa dikembalikan</t>
     </r>
     <r>
       <rPr>
@@ -100,7 +99,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">)</t>
+      <t>)</t>
     </r>
   </si>
   <si>
@@ -120,7 +119,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">report per universities(</t>
+      <t>report per universities(</t>
     </r>
     <r>
       <rPr>
@@ -130,7 +129,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">dishow semua univ, utk filternya sementara menggunakan search</t>
+      <t>dishow semua univ, utk filternya sementara menggunakan search</t>
     </r>
     <r>
       <rPr>
@@ -139,7 +138,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">)</t>
+      <t>)</t>
     </r>
   </si>
   <si>
@@ -160,7 +159,7 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -175,7 +174,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">otomatis redirect to userpage</t>
+      <t>otomatis redirect to userpage</t>
     </r>
   </si>
 </sst>
@@ -183,10 +182,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="9">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -194,22 +190,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
@@ -217,7 +198,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -238,14 +219,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,98 +251,70 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -420,295 +373,586 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.4"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="3.70918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="75"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="3" width="11.5714285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5714285714286"/>
+    <col min="1" max="1" width="3.7109375" style="2"/>
+    <col min="2" max="2" width="75" style="3"/>
+    <col min="3" max="5" width="11.5703125" style="4"/>
+    <col min="6" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" ht="15.75">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:5" ht="15.75">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="25.5">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="C3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:5">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+      <c r="D5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="25.5">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:5" ht="25.5">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:5">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+      <c r="D8" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:5">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.75">
+      <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" ht="25.5">
+      <c r="A14" s="2">
         <v>1</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:5">
+      <c r="A15" s="2">
         <v>2</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="3" t="s">
+      <c r="D15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:5" ht="38.25">
+      <c r="A16" s="2">
         <v>3</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="D16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
+    <row r="17" spans="1:5">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75">
+      <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2">
         <v>1</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+      <c r="D19" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2">
         <v>2</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+      <c r="D20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="25.5">
+      <c r="A21" s="2">
         <v>3</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -717,87 +961,87 @@
       <c r="C21" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+      <c r="D21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2">
         <v>4</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+      <c r="D22" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2">
         <v>5</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+      <c r="D23" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2">
         <v>6</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7" t="s">
+      <c r="D24" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75">
+      <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-    </row>
-    <row r="29" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" ht="25.5">
+      <c r="A29" s="2">
         <v>1</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -808,10 +1052,9 @@
     <mergeCell ref="A18:E18"/>
     <mergeCell ref="A28:E28"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/docs/buglist.xlsx
+++ b/docs/buglist.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
   <si>
     <t>No</t>
   </si>
@@ -287,9 +287,6 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -309,6 +306,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -673,376 +673,379 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="2"/>
-    <col min="2" max="2" width="75" style="3"/>
-    <col min="3" max="5" width="11.5703125" style="4"/>
+    <col min="1" max="1" width="3.7109375" style="1"/>
+    <col min="2" max="2" width="75" style="2"/>
+    <col min="3" max="5" width="11.5703125" style="3"/>
     <col min="6" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:5" ht="25.5">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="25.5">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="25.5">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
     </row>
     <row r="13" spans="1:5" ht="15.75">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
     </row>
     <row r="14" spans="1:5" ht="25.5">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>1</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="4" t="s">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>2</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="4" t="s">
+      <c r="D15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="38.25">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>3</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="D16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="15.75">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>1</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>2</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="4" t="s">
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="25.5">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>3</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="4" t="s">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>4</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>5</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>6</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
     </row>
     <row r="28" spans="1:5" ht="15.75">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
     </row>
     <row r="29" spans="1:5" ht="25.5">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>1</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>8</v>
+      <c r="C29" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/docs/buglist.xlsx
+++ b/docs/buglist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="102" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="51" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="34">
   <si>
     <t>No</t>
   </si>
@@ -116,9 +116,6 @@
     <t>menu import, berisi lengkap data aplicant di setiap barisnya</t>
   </si>
   <si>
-    <t>progress</t>
-  </si>
-  <si>
     <t>report per province</t>
   </si>
   <si>
@@ -153,6 +150,9 @@
   </si>
   <si>
     <t>Bisa kah default row in tablenya diganti 50?? -minor-</t>
+  </si>
+  <si>
+    <t>fitur report berdasarkan pondok pesantren</t>
   </si>
   <si>
     <t>AUTH</t>
@@ -435,11 +435,11 @@
   </sheetPr>
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="3.70918367346939"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="75"/>
@@ -447,7 +447,7 @@
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5714285714286"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -464,7 +464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
@@ -473,7 +473,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
@@ -490,7 +490,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
@@ -507,7 +507,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
@@ -524,7 +524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
@@ -541,7 +541,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
@@ -616,14 +616,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="0"/>
       <c r="D13" s="0"/>
       <c r="E13" s="0"/>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
         <v>20</v>
       </c>
@@ -632,7 +632,7 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>1</v>
       </c>
@@ -649,7 +649,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>2</v>
       </c>
@@ -683,14 +683,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="0"/>
       <c r="D18" s="0"/>
       <c r="E18" s="0"/>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
         <v>24</v>
       </c>
@@ -706,19 +706,22 @@
       <c r="B20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>26</v>
+      <c r="C20" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>7</v>
@@ -735,7 +738,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>7</v>
@@ -752,12 +755,15 @@
         <v>4</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="D23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -766,7 +772,7 @@
         <v>5</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>15</v>
@@ -780,7 +786,7 @@
         <v>6</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>15</v>
@@ -790,21 +796,31 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
+      <c r="A26" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="0"/>
       <c r="D28" s="0"/>
       <c r="E28" s="0"/>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
         <v>32</v>
       </c>

--- a/docs/buglist.xlsx
+++ b/docs/buglist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="51" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="12" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="34">
   <si>
     <t>No</t>
   </si>
@@ -152,7 +152,7 @@
     <t>Bisa kah default row in tablenya diganti 50?? -minor-</t>
   </si>
   <si>
-    <t>fitur report berdasarkan pondok pesantren</t>
+    <t>fitur daftar pondok pesantren</t>
   </si>
   <si>
     <t>AUTH</t>
@@ -435,8 +435,8 @@
   </sheetPr>
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.4"/>
@@ -774,10 +774,13 @@
       <c r="B24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>15</v>
+      <c r="C24" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="D24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -802,10 +805,13 @@
       <c r="B26" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>15</v>
+      <c r="C26" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -816,9 +822,6 @@
     <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="0"/>
-      <c r="D28" s="0"/>
-      <c r="E28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
